--- a/Project Planning & Management/DemoBlaze_TestCases.xlsx
+++ b/Project Planning & Management/DemoBlaze_TestCases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29422"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waheed\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681E7177-FE4A-4A45-89DB-D235DEF87CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="1" r:id="rId1"/>
@@ -19,13 +20,14 @@
     <sheet name="Sign Up" sheetId="5" r:id="rId5"/>
     <sheet name="Contact Form" sheetId="6" r:id="rId6"/>
     <sheet name="About Us" sheetId="7" r:id="rId7"/>
+    <sheet name="Place Order" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="641">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -2031,12 +2033,221 @@
   <si>
     <t>All the elements of the About Us window should be visible and clickable</t>
   </si>
+  <si>
+    <t>PO01</t>
+  </si>
+  <si>
+    <t>PO02</t>
+  </si>
+  <si>
+    <t>PO03</t>
+  </si>
+  <si>
+    <t>PO04</t>
+  </si>
+  <si>
+    <t>PO05</t>
+  </si>
+  <si>
+    <t>PO06</t>
+  </si>
+  <si>
+    <t>PO07</t>
+  </si>
+  <si>
+    <t>PO08</t>
+  </si>
+  <si>
+    <t>PO09</t>
+  </si>
+  <si>
+    <t>PO10</t>
+  </si>
+  <si>
+    <t>Verify user can place order successfully</t>
+  </si>
+  <si>
+    <t>Order confirmation popup appears with “Thank you for your purchase!” and order details.</t>
+  </si>
+  <si>
+    <t>Verify order cannot be placed with empty fields</t>
+  </si>
+  <si>
+    <t>(Empty fields)</t>
+  </si>
+  <si>
+    <t>Verify order cannot be placed without selecting a product</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>“Cart is empty” or no action occurs; user cannot proceed to checkout.</t>
+  </si>
+  <si>
+    <t>Validate “Cancel” button behavior</t>
+  </si>
+  <si>
+    <t>Name: Alice</t>
+  </si>
+  <si>
+    <t>Verify data persistence after order submission</t>
+  </si>
+  <si>
+    <t>Cart should be empty after successful order.</t>
+  </si>
+  <si>
+    <t>Verify alert for invalid credit card number</t>
+  </si>
+  <si>
+    <t>Card: abcd1234</t>
+  </si>
+  <si>
+    <t>Alert or error indicating invalid card format.</t>
+  </si>
+  <si>
+    <t>Verify user can place multiple orders sequentially</t>
+  </si>
+  <si>
+    <t>Various product names</t>
+  </si>
+  <si>
+    <t>Each order should complete successfully with unique confirmation IDs.</t>
+  </si>
+  <si>
+    <t>Verify purchase confirmation contains correct details</t>
+  </si>
+  <si>
+    <t>Popup should display correct product amount and buyer’s name.</t>
+  </si>
+  <si>
+    <t>Verify purchase popup closes correctly after clicking “OK”</t>
+  </si>
+  <si>
+    <t>Successful order</t>
+  </si>
+  <si>
+    <t>Verify valid order</t>
+  </si>
+  <si>
+    <t>verify invalid order</t>
+  </si>
+  <si>
+    <t>Name: Test
+Country: Test
+City: Test
+Card: 0123456789123456
+Month: 10
+Year: 2025</t>
+  </si>
+  <si>
+    <t>1. Place one order successfully.
+2. Add another product.
+3. Place another order.</t>
+  </si>
+  <si>
+    <t>1. Place order.
+2. Review confirmation popup.</t>
+  </si>
+  <si>
+    <t>Cart is empty after succeful order</t>
+  </si>
+  <si>
+    <t>1. Go to Cart.
+2. Click Place Order.
+3. Fill all fields
+4. Click Purchase.</t>
+  </si>
+  <si>
+    <t>1. Go to Cart.
+2. Click Place Order.
+3. Leave all fields blanck
+4. Click Purchase.</t>
+  </si>
+  <si>
+    <t>Alert or validation message appears indicating missing fields and order not placed.</t>
+  </si>
+  <si>
+    <t>1. Go to Cart without adding any items.
+2. Click Place Order.</t>
+  </si>
+  <si>
+    <t>To verify successful order placement with valid data</t>
+  </si>
+  <si>
+    <t>To ensure proper validation messages appear</t>
+  </si>
+  <si>
+    <t>To confirm user can cancel an order without submission</t>
+  </si>
+  <si>
+    <t>To ensure cart resets after checkout</t>
+  </si>
+  <si>
+    <t>To ensure accurate order confirmation details</t>
+  </si>
+  <si>
+    <t>To ensure user cannot order without items</t>
+  </si>
+  <si>
+    <t>Verify name field doesn't accept numbers</t>
+  </si>
+  <si>
+    <t>Name: 123456</t>
+  </si>
+  <si>
+    <t>To verify that invalid credit cards get rejected</t>
+  </si>
+  <si>
+    <t>To verify that invalid names are getting rejected</t>
+  </si>
+  <si>
+    <t>Alert or error indicating invalid wrong name.</t>
+  </si>
+  <si>
+    <t>1. Go to Cart → Place Order.
+2. Enter invalid card number.
+3. Click Purchase.</t>
+  </si>
+  <si>
+    <t>1. Go to Cart → Place Order.
+2. Enter numbers in Name field.
+3. Click Purchase.</t>
+  </si>
+  <si>
+    <t>1. Go to Cart.
+2. Click Place Order.
+3. Fill form partially.
+4. Click Cancel.</t>
+  </si>
+  <si>
+    <t>1. Complete order successfully.
+2. Check Cart again.</t>
+  </si>
+  <si>
+    <t>1. After confirmation appears, click OK.</t>
+  </si>
+  <si>
+    <t>Place order window closes, user returns to cart page without placing the order</t>
+  </si>
+  <si>
+    <t>Popup closes then user is redirected to homepage.</t>
+  </si>
+  <si>
+    <t>To Ensure user can use the website normally after buying an order</t>
+  </si>
+  <si>
+    <t>To ensure user can buy multiple orders in one session</t>
+  </si>
+  <si>
+    <t>Verify system behavior after order completion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2064,8 +2275,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2092,7 +2316,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2133,7 +2381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2153,17 +2401,25 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2172,6 +2428,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2190,9 +2453,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2230,9 +2493,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2267,7 +2530,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2302,7 +2565,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2475,29 +2738,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" customWidth="1"/>
-    <col min="7" max="7" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.85546875" customWidth="1"/>
-    <col min="9" max="9" width="41.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" customWidth="1"/>
+    <col min="7" max="7" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.88671875" customWidth="1"/>
+    <col min="9" max="9" width="41.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2534,11 +2797,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2572,11 +2835,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1" t="s">
         <v>61</v>
       </c>
@@ -2608,11 +2871,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="1" t="s">
         <v>62</v>
       </c>
@@ -2644,11 +2907,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2682,11 +2945,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="1" t="s">
         <v>97</v>
       </c>
@@ -2718,11 +2981,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2756,11 +3019,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
@@ -2792,11 +3055,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="1" t="s">
         <v>66</v>
       </c>
@@ -2828,11 +3091,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2866,11 +3129,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
@@ -2902,11 +3165,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="1" t="s">
         <v>69</v>
       </c>
@@ -2938,11 +3201,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1" t="s">
         <v>70</v>
       </c>
@@ -2974,11 +3237,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="1" t="s">
         <v>71</v>
       </c>
@@ -3010,11 +3273,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="1" t="s">
         <v>72</v>
       </c>
@@ -3046,11 +3309,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3084,11 +3347,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
@@ -3120,11 +3383,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
@@ -3156,11 +3419,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3194,11 +3457,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="1" t="s">
         <v>77</v>
       </c>
@@ -3230,11 +3493,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="1" t="s">
         <v>81</v>
       </c>
@@ -3266,11 +3529,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3304,11 +3567,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="1" t="s">
         <v>90</v>
       </c>
@@ -3340,11 +3603,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="1" t="s">
         <v>93</v>
       </c>
@@ -3387,7 +3650,7 @@
     <mergeCell ref="B7:B9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3397,29 +3660,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="54.28515625" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1"/>
-    <col min="9" max="9" width="38.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="5" max="5" width="54.21875" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" customWidth="1"/>
+    <col min="7" max="7" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1"/>
+    <col min="9" max="9" width="38.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>157</v>
       </c>
@@ -3457,7 +3720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>324</v>
       </c>
@@ -3495,7 +3758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>325</v>
       </c>
@@ -3533,7 +3796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>326</v>
       </c>
@@ -3571,7 +3834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>327</v>
       </c>
@@ -3609,7 +3872,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>328</v>
       </c>
@@ -3647,7 +3910,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>329</v>
       </c>
@@ -3685,7 +3948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>330</v>
       </c>
@@ -3723,7 +3986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>331</v>
       </c>
@@ -3761,7 +4024,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>332</v>
       </c>
@@ -3799,7 +4062,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>333</v>
       </c>
@@ -3837,7 +4100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>334</v>
       </c>
@@ -3875,7 +4138,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>335</v>
       </c>
@@ -3913,7 +4176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>336</v>
       </c>
@@ -3951,7 +4214,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>337</v>
       </c>
@@ -3989,7 +4252,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>338</v>
       </c>
@@ -4029,7 +4292,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L16" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4038,29 +4301,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" customWidth="1"/>
-    <col min="5" max="5" width="43.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="35.109375" customWidth="1"/>
+    <col min="8" max="8" width="40.33203125" customWidth="1"/>
     <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>157</v>
       </c>
@@ -4098,7 +4361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
@@ -4136,7 +4399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>340</v>
       </c>
@@ -4174,7 +4437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>341</v>
       </c>
@@ -4212,7 +4475,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>342</v>
       </c>
@@ -4250,7 +4513,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>343</v>
       </c>
@@ -4288,7 +4551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>344</v>
       </c>
@@ -4326,7 +4589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>345</v>
       </c>
@@ -4364,7 +4627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>346</v>
       </c>
@@ -4402,7 +4665,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>347</v>
       </c>
@@ -4442,7 +4705,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L10" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4451,30 +4714,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="40.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>157</v>
       </c>
@@ -4512,7 +4775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>348</v>
       </c>
@@ -4550,7 +4813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>349</v>
       </c>
@@ -4588,7 +4851,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>350</v>
       </c>
@@ -4626,7 +4889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>351</v>
       </c>
@@ -4664,7 +4927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>352</v>
       </c>
@@ -4702,7 +4965,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>353</v>
       </c>
@@ -4740,7 +5003,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>354</v>
       </c>
@@ -4774,11 +5037,11 @@
       <c r="K8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L8" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>355</v>
       </c>
@@ -4816,7 +5079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>356</v>
       </c>
@@ -4854,7 +5117,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>357</v>
       </c>
@@ -4892,7 +5155,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>358</v>
       </c>
@@ -4930,7 +5193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>359</v>
       </c>
@@ -4968,7 +5231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>360</v>
       </c>
@@ -5006,7 +5269,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>361</v>
       </c>
@@ -5044,7 +5307,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>362</v>
       </c>
@@ -5082,7 +5345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>363</v>
       </c>
@@ -5120,7 +5383,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>364</v>
       </c>
@@ -5158,7 +5421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>365</v>
       </c>
@@ -5198,7 +5461,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L19" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5208,67 +5471,67 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C79E14E-5118-44E9-B8BF-9C7D83A6FCCC}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="L1" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>437</v>
       </c>
@@ -5304,7 +5567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>444</v>
       </c>
@@ -5338,7 +5601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>449</v>
       </c>
@@ -5372,7 +5635,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>455</v>
       </c>
@@ -5404,7 +5667,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>459</v>
       </c>
@@ -5436,7 +5699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>463</v>
       </c>
@@ -5470,7 +5733,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>471</v>
       </c>
@@ -5504,7 +5767,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>478</v>
       </c>
@@ -5538,7 +5801,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>486</v>
       </c>
@@ -5572,7 +5835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>492</v>
       </c>
@@ -5604,7 +5867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>496</v>
       </c>
@@ -5636,7 +5899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>500</v>
       </c>
@@ -5670,73 +5933,72 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEBC1E6-1E12-44E5-A722-28B80C2F081D}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="L1" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>505</v>
       </c>
@@ -5772,7 +6034,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>511</v>
       </c>
@@ -5806,7 +6068,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>516</v>
       </c>
@@ -5840,7 +6102,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>522</v>
       </c>
@@ -5874,7 +6136,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>528</v>
       </c>
@@ -5908,7 +6170,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>534</v>
       </c>
@@ -5942,7 +6204,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>539</v>
       </c>
@@ -5976,7 +6238,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>545</v>
       </c>
@@ -6008,7 +6270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>549</v>
       </c>
@@ -6040,7 +6302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>552</v>
       </c>
@@ -6078,68 +6340,68 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A44E5F-D02C-463A-81B0-A144EF61B1A1}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="9" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>556</v>
       </c>
@@ -6169,11 +6431,11 @@
       <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="L2" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>562</v>
       </c>
@@ -6203,11 +6465,11 @@
       <c r="K3" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="L3" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>568</v>
       </c>
@@ -6235,11 +6497,11 @@
       <c r="K4" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="L4" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>572</v>
       </c>
@@ -6267,11 +6529,11 @@
       <c r="K5" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="L5" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>575</v>
       </c>
@@ -6299,11 +6561,438 @@
       <c r="K6" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="10" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2A727C-B85F-47A9-93F0-A0C54B677BDD}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>